--- a/HornetNewDataWithPositiveCases.xlsx
+++ b/HornetNewDataWithPositiveCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Seoyun/Downloads/2021_MCM_Problem_C_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hreed\Documents\UCF\Projects\Hornet-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6D98777-4064-F047-BBB7-2F676E2FA5E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEC2AA7-B52F-4A0A-B2AB-DADA795AEF93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15640" xr2:uid="{88050B78-2E05-C04B-8432-556A30D89647}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{88050B78-2E05-C04B-8432-556A30D89647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,13 +424,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6572510-426F-2E42-B2E9-009B1A7EC2C3}">
   <dimension ref="A1:E799"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A788" workbookViewId="0">
+      <selection activeCell="E723" sqref="E723"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -515,7 +515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -852,10 +852,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -869,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -886,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -903,10 +903,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2076,10 +2076,10 @@
         <v>1</v>
       </c>
       <c r="E97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>1</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>1</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>1</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -2637,10 +2637,10 @@
         <v>1</v>
       </c>
       <c r="E130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>1</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>1</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>1</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>1</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>1</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>1</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>1</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>1</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>1</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>1</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>1</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>1</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>1</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>1</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>1</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>1</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>1</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>1</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>1</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>1</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>1</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>1</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>1</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>1</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>1</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>1</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>1</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>1</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>1</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>1</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -3385,10 +3385,10 @@
         <v>1</v>
       </c>
       <c r="E174" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>1</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>1</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>1</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>1</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>1</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>1</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>1</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>1</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>1</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>1</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>1</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>1</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>1</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>1</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>1</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>1</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>1</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>1</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>1</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>1</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>1</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>1</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>1</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>1</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>1</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>1</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>1</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>1</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>1</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>1</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>1</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>1</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>1</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>1</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>1</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>1</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>1</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>1</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>1</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>1</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>1</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>1</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>1</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>1</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>1</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>1</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>1</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>1</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>1</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>1</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>1</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>1</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>1</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>1</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>1</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>1</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>1</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>1</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>1</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>1</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>1</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>1</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>1</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>1</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>1</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>1</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>1</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>1</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>1</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>1</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>1</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>1</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>1</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>1</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>1</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>1</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>1</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>1</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>1</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>1</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>1</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>1</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>1</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>1</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>1</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>1</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>1</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>1</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>1</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>1</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>1</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>1</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>1</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>1</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>1</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>1</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>1</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>1</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>1</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>1</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>1</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>1</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>1</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>1</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>1</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>1</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>1</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>1</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>1</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>1</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>1</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>1</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>1</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>1</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>1</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>1</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>1</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>1</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>1</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>1</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>1</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>1</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>1</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>1</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>1</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>1</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>1</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>1</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>1</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>1</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>1</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>1</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>1</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>1</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>1</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>1</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>1</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>1</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>1</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>1</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>1</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>1</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>1</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>1</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>1</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>1</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>1</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>1</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>1</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>1</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>1</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>1</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>1</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>1</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>1</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>1</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>1</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>1</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>1</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>1</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>1</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>1</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>1</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>1</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>1</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>1</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>1</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>1</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>1</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>1</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>1</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>1</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>1</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>1</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>1</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>1</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>1</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>1</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>1</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>1</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>1</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>1</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>1</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>1</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>1</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>1</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>1</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>1</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>1</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>1</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>1</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>1</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>1</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>5</v>
       </c>
@@ -8043,10 +8043,10 @@
         <v>1</v>
       </c>
       <c r="E448" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>1</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>1</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>1</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>1</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>1</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>1</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>1</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>1</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>1</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>1</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>1</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>1</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>1</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>1</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>1</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>1</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>1</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>1</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>1</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>1</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>1</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>1</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>1</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>1</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>1</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>1</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>1</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>1</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>1</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>1</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>1</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>1</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>1</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>1</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>1</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>1</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>1</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>1</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>1</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>1</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>1</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>1</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>1</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>1</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>1</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>1</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>1</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>1</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>1</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>1</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>1</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>1</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>1</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>1</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>1</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>1</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>1</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>1</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>1</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>1</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>1</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>1</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>1</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>1</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>1</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>1</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>1</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>1</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>1</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>1</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>1</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>1</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>1</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>1</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>1</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>1</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>1</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>1</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>1</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>1</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>1</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>1</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>1</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>1</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>1</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>1</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>1</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>1</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>1</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>1</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>1</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>1</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>1</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>1</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>1</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>1</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>1</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>1</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>1</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>1</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>1</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>1</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>1</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>1</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>1</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>1</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>1</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>1</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>1</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>1</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>1</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>1</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>1</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>1</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>1</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>1</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>1</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>1</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>1</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>1</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>1</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>1</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>1</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>1</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>1</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>1</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>1</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>1</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>1</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>1</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>1</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>1</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>1</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>1</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>1</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>1</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>1</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>1</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>1</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>1</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>1</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>1</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>1</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>1</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>1</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>1</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>1</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>1</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>1</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>1</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>1</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>1</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>1</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>1</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>1</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>1</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>1</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>1</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>1</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>1</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>1</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>1</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>1</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>1</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>1</v>
       </c>
@@ -10851,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>1</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>1</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>1</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>1</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>1</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>1</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>1</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>1</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>1</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>1</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>1</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>1</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>1</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>1</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>1</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>1</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>1</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>1</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>1</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>1</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>1</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>1</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>1</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>1</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>1</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>1</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>1</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>1</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>1</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>1</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>1</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>1</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>1</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>1</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>1</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>1</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>1</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>1</v>
       </c>
@@ -11497,7 +11497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>1</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>1</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>1</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>1</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>1</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>1</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>1</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>1</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>1</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>1</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>1</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>1</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>1</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>1</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>1</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>1</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>1</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>5</v>
       </c>
@@ -11800,10 +11800,10 @@
         <v>1</v>
       </c>
       <c r="E669" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>1</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>1</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>1</v>
       </c>
@@ -11854,7 +11854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>1</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>1</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>1</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>1</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>1</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>1</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>1</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>1</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>1</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>1</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>1</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>1</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>1</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>1</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>1</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>1</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>1</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>1</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>1</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>1</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>1</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>1</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>1</v>
       </c>
@@ -12245,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>1</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>1</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>1</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>1</v>
       </c>
@@ -12313,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>1</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>1</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>1</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>5</v>
       </c>
@@ -12378,10 +12378,10 @@
         <v>1</v>
       </c>
       <c r="E703" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>1</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>1</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>1</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>1</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>1</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>1</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>5</v>
       </c>
@@ -12497,10 +12497,10 @@
         <v>1</v>
       </c>
       <c r="E710" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>1</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>1</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>1</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>1</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>1</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>1</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>1</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>5</v>
       </c>
@@ -12633,10 +12633,10 @@
         <v>1</v>
       </c>
       <c r="E718" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>1</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>1</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>1</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>1</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>5</v>
       </c>
@@ -12718,10 +12718,10 @@
         <v>1</v>
       </c>
       <c r="E723" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>1</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>1</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>1</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>1</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>1</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>1</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>1</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>1</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>1</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>1</v>
       </c>
@@ -12891,7 +12891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>1</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>1</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>1</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>1</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>1</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>1</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>1</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>1</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>1</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>1</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>1</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>1</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>1</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>1</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>1</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>1</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>1</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>1</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>1</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>1</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>1</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>1</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>1</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>1</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>1</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>1</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>1</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>1</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>1</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>1</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>1</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>1</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>1</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>1</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>1</v>
       </c>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>1</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>1</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>1</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>1</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>1</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>1</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>1</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>1</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>1</v>
       </c>
@@ -13639,7 +13639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>1</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>1</v>
       </c>
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>1</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>1</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>1</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>1</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>1</v>
       </c>
@@ -13758,7 +13758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>1</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>1</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>1</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>1</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>1</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>1</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>1</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>1</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>1</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>1</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>1</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>1</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>1</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>1</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>1</v>
       </c>

--- a/HornetNewDataWithPositiveCases.xlsx
+++ b/HornetNewDataWithPositiveCases.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hreed\Documents\UCF\Projects\Hornet-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEC2AA7-B52F-4A0A-B2AB-DADA795AEF93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E12DEF-34AB-4700-9605-01AA01842E54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{88050B78-2E05-C04B-8432-556A30D89647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6572510-426F-2E42-B2E9-009B1A7EC2C3}">
   <dimension ref="A1:E799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A788" workbookViewId="0">
-      <selection activeCell="E723" sqref="E723"/>
+    <sheetView tabSelected="1" topLeftCell="A773" workbookViewId="0">
+      <selection activeCell="F723" sqref="F723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="E130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -3385,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="E174" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
@@ -8043,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="E448" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.35">
@@ -11800,7 +11800,7 @@
         <v>1</v>
       </c>
       <c r="E669" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.35">
@@ -12378,7 +12378,7 @@
         <v>1</v>
       </c>
       <c r="E703" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.35">
@@ -12497,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="E710" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.35">
@@ -12633,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="E718" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.35">
@@ -12718,7 +12718,7 @@
         <v>1</v>
       </c>
       <c r="E723" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.35">
